--- a/panel/template/importdatamaster.xlsx
+++ b/panel/template/importdatamaster.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathoni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\candy-refact\panel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BA81F-CD6E-4810-B1BF-EC2264037EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111ADC40-BE81-45EC-8E4D-83C0D84D9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -395,9 +396,6 @@
     <t>085612341234</t>
   </si>
   <si>
-    <t>ISLAM</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -585,19 +583,44 @@
   </si>
   <si>
     <t>R06</t>
+  </si>
+  <si>
+    <t>islam</t>
+  </si>
+  <si>
+    <t>katolik</t>
+  </si>
+  <si>
+    <t>protestan</t>
+  </si>
+  <si>
+    <t>hindu</t>
+  </si>
+  <si>
+    <t>budha</t>
+  </si>
+  <si>
+    <t>konghuchu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,45 +736,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,29 +1062,29 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1105,15 +1131,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1122,42 +1148,40 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="N2" s="15"/>
       <c r="O2" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1166,42 +1190,42 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1210,42 +1234,42 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1254,42 +1278,42 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -1298,42 +1322,42 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -1342,42 +1366,42 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -1386,42 +1410,42 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O8" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -1430,42 +1454,42 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -1474,42 +1498,42 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -1518,42 +1542,42 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1562,42 +1586,42 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -1606,42 +1630,42 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>21</v>
@@ -1650,42 +1674,42 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O14" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
@@ -1694,42 +1718,42 @@
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O15" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -1738,42 +1762,42 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O16" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
@@ -1782,42 +1806,42 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O17" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -1826,42 +1850,42 @@
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O18" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>26</v>
@@ -1870,42 +1894,42 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O19" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>27</v>
@@ -1914,42 +1938,42 @@
         <v>8</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>28</v>
@@ -1958,42 +1982,42 @@
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O21" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>29</v>
@@ -2002,42 +2026,42 @@
         <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
@@ -2046,42 +2070,42 @@
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O23" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>31</v>
@@ -2090,42 +2114,42 @@
         <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>32</v>
@@ -2134,42 +2158,42 @@
         <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O25" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>32</v>
@@ -2178,42 +2202,42 @@
         <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>33</v>
@@ -2222,42 +2246,42 @@
         <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O27" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>34</v>
@@ -2266,42 +2290,42 @@
         <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O28" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>35</v>
@@ -2310,42 +2334,42 @@
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
@@ -2354,42 +2378,42 @@
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>37</v>
@@ -2398,42 +2422,42 @@
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O31" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>38</v>
@@ -2442,42 +2466,42 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O32" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>39</v>
@@ -2486,42 +2510,42 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>40</v>
@@ -2530,42 +2554,42 @@
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O34" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>41</v>
@@ -2574,42 +2598,42 @@
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O35" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>42</v>
@@ -2618,42 +2642,42 @@
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>43</v>
@@ -2662,42 +2686,42 @@
         <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O37" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
@@ -2706,42 +2730,42 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>45</v>
@@ -2750,42 +2774,42 @@
         <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O39" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>46</v>
@@ -2794,42 +2818,42 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O40" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>47</v>
@@ -2838,42 +2862,42 @@
         <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O41" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>48</v>
@@ -2882,42 +2906,42 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O42" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>49</v>
@@ -2926,42 +2950,42 @@
         <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O43" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>50</v>
@@ -2970,42 +2994,42 @@
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O44" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>51</v>
@@ -3014,42 +3038,42 @@
         <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O45" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>52</v>
@@ -3058,42 +3082,42 @@
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O46" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>53</v>
@@ -3102,42 +3126,42 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O47" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>54</v>
@@ -3146,42 +3170,42 @@
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O48" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>55</v>
@@ -3190,42 +3214,42 @@
         <v>9</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O49" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>56</v>
@@ -3234,42 +3258,42 @@
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O50" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
@@ -3278,37 +3302,94 @@
         <v>9</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O51" s="13" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBE38426-477D-4C43-899A-4E8125C7F090}">
+          <x14:formula1>
+            <xm:f>list!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0FF2F7-CAAA-4F70-97CD-09DE6F38DC7A}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>